--- a/public/Plantillas/Reporte-Sesiones.xlsx
+++ b/public/Plantillas/Reporte-Sesiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis_version\tesis2\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B426BECF-B7EB-492F-8496-814DE644E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6B111-1E18-4A3F-BEE7-106DFF7480DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -100,6 +100,7 @@
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -183,6 +184,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,11 +198,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,45 +224,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>244931</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>247377</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1428750" cy="476250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED96B37-F406-4995-AC92-C73AB85E89BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="244931" y="247377"/>
-          <a:ext cx="1428750" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>320000</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -282,7 +244,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -299,6 +261,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1159769</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0607EC-C4DA-4AFC-AAA5-D84A13C47EA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="228600"/>
+          <a:ext cx="1331219" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -601,39 +613,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
   <dimension ref="A1:U328"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-    <col min="8" max="8" width="41.109375" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" customWidth="1"/>
-    <col min="13" max="13" width="25.44140625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -646,14 +658,14 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="14"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -666,17 +678,17 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -696,17 +708,17 @@
         <v>8</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -714,17 +726,17 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -732,7 +744,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -740,7 +752,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -748,7 +760,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -756,7 +768,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -764,7 +776,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -772,7 +784,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -780,7 +792,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -788,7 +800,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -796,7 +808,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -804,7 +816,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -812,7 +824,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -820,7 +832,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -828,7 +840,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -836,7 +848,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -844,7 +856,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -852,7 +864,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -860,7 +872,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -868,7 +880,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -876,7 +888,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -884,7 +896,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -892,7 +904,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -900,7 +912,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -908,7 +920,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
@@ -916,7 +928,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
@@ -924,7 +936,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
@@ -932,7 +944,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
@@ -940,7 +952,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -948,7 +960,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
@@ -956,7 +968,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -964,7 +976,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
@@ -972,7 +984,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -980,7 +992,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
@@ -988,7 +1000,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -996,7 +1008,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
@@ -1004,7 +1016,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -1012,7 +1024,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -1020,7 +1032,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
@@ -1028,7 +1040,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -1036,7 +1048,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
@@ -1044,7 +1056,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -1052,7 +1064,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -1060,7 +1072,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -1068,7 +1080,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -1076,7 +1088,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
@@ -1084,7 +1096,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -1092,7 +1104,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -1100,7 +1112,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
@@ -1108,7 +1120,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
@@ -1116,7 +1128,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -1124,7 +1136,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
@@ -1132,7 +1144,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
@@ -1140,7 +1152,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
@@ -1148,7 +1160,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
@@ -1156,7 +1168,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
@@ -1164,7 +1176,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
@@ -1172,7 +1184,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
@@ -1180,7 +1192,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
@@ -1188,7 +1200,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
@@ -1196,7 +1208,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
@@ -1204,7 +1216,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
@@ -1212,7 +1224,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
@@ -1220,7 +1232,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
@@ -1228,7 +1240,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
@@ -1236,7 +1248,7 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
@@ -1244,7 +1256,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
@@ -1252,7 +1264,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
@@ -1260,7 +1272,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
@@ -1268,7 +1280,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
@@ -1276,7 +1288,7 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
@@ -1284,7 +1296,7 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
@@ -1292,7 +1304,7 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
@@ -1300,7 +1312,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
@@ -1308,7 +1320,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
@@ -1316,7 +1328,7 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
@@ -1324,7 +1336,7 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
@@ -1332,7 +1344,7 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
@@ -1340,7 +1352,7 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
@@ -1348,7 +1360,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
@@ -1356,7 +1368,7 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
@@ -1364,7 +1376,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
@@ -1372,7 +1384,7 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
@@ -1380,7 +1392,7 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
@@ -1388,7 +1400,7 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
@@ -1396,7 +1408,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
@@ -1404,7 +1416,7 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
@@ -1412,7 +1424,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
@@ -1420,7 +1432,7 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
@@ -1428,7 +1440,7 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
@@ -1436,7 +1448,7 @@
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
@@ -1444,7 +1456,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
@@ -1452,7 +1464,7 @@
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
@@ -1460,7 +1472,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
@@ -1468,7 +1480,7 @@
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -1476,7 +1488,7 @@
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
@@ -1484,7 +1496,7 @@
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
@@ -1492,7 +1504,7 @@
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
@@ -1500,7 +1512,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
@@ -1508,7 +1520,7 @@
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
@@ -1516,7 +1528,7 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
@@ -1524,7 +1536,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
@@ -1532,7 +1544,7 @@
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
@@ -1540,7 +1552,7 @@
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
@@ -1548,7 +1560,7 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
@@ -1556,7 +1568,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
@@ -1564,7 +1576,7 @@
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
@@ -1572,7 +1584,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
@@ -1580,7 +1592,7 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
@@ -1588,7 +1600,7 @@
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
@@ -1596,7 +1608,7 @@
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -1604,7 +1616,7 @@
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -1612,7 +1624,7 @@
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
@@ -1620,7 +1632,7 @@
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
@@ -1628,7 +1640,7 @@
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
@@ -1636,7 +1648,7 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
@@ -1644,7 +1656,7 @@
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
@@ -1652,7 +1664,7 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -1660,7 +1672,7 @@
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
@@ -1668,7 +1680,7 @@
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
@@ -1676,7 +1688,7 @@
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -1684,7 +1696,7 @@
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
@@ -1692,7 +1704,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -1700,7 +1712,7 @@
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -1708,7 +1720,7 @@
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
@@ -1716,7 +1728,7 @@
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
@@ -1724,7 +1736,7 @@
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
@@ -1732,7 +1744,7 @@
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -1740,7 +1752,7 @@
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -1748,7 +1760,7 @@
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -1756,7 +1768,7 @@
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -1764,7 +1776,7 @@
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -1772,7 +1784,7 @@
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -1780,7 +1792,7 @@
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -1788,7 +1800,7 @@
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -1796,7 +1808,7 @@
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -1804,7 +1816,7 @@
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -1812,7 +1824,7 @@
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -1820,7 +1832,7 @@
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -1828,7 +1840,7 @@
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -1836,7 +1848,7 @@
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -1844,7 +1856,7 @@
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -1852,7 +1864,7 @@
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -1860,7 +1872,7 @@
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -1868,7 +1880,7 @@
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
@@ -1876,7 +1888,7 @@
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
@@ -1884,7 +1896,7 @@
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
@@ -1892,7 +1904,7 @@
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
@@ -1900,7 +1912,7 @@
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
@@ -1908,7 +1920,7 @@
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
@@ -1916,7 +1928,7 @@
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
@@ -1924,7 +1936,7 @@
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
@@ -1932,7 +1944,7 @@
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
@@ -1940,7 +1952,7 @@
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
@@ -1948,7 +1960,7 @@
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
@@ -1956,7 +1968,7 @@
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
@@ -1964,7 +1976,7 @@
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
@@ -1972,7 +1984,7 @@
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
@@ -1980,7 +1992,7 @@
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
@@ -1988,7 +2000,7 @@
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
@@ -1996,7 +2008,7 @@
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
@@ -2004,7 +2016,7 @@
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
@@ -2012,7 +2024,7 @@
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
@@ -2020,7 +2032,7 @@
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
@@ -2028,7 +2040,7 @@
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
@@ -2036,7 +2048,7 @@
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
@@ -2044,7 +2056,7 @@
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
@@ -2052,7 +2064,7 @@
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
@@ -2060,7 +2072,7 @@
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
@@ -2068,7 +2080,7 @@
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
@@ -2076,7 +2088,7 @@
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
@@ -2084,7 +2096,7 @@
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
@@ -2092,7 +2104,7 @@
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="8"/>
@@ -2100,7 +2112,7 @@
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="8"/>
@@ -2108,7 +2120,7 @@
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="8"/>
@@ -2116,7 +2128,7 @@
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="8"/>
@@ -2124,7 +2136,7 @@
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
@@ -2132,7 +2144,7 @@
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="8"/>
@@ -2140,7 +2152,7 @@
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="8"/>
@@ -2148,7 +2160,7 @@
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="8"/>
@@ -2156,7 +2168,7 @@
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="8"/>
@@ -2164,7 +2176,7 @@
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="8"/>
@@ -2172,7 +2184,7 @@
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="8"/>
@@ -2180,7 +2192,7 @@
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="8"/>
@@ -2188,7 +2200,7 @@
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="8"/>
@@ -2196,7 +2208,7 @@
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="8"/>
@@ -2204,7 +2216,7 @@
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="8"/>
@@ -2212,7 +2224,7 @@
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="8"/>
@@ -2220,7 +2232,7 @@
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="8"/>
@@ -2228,7 +2240,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="8"/>
@@ -2236,7 +2248,7 @@
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="8"/>
@@ -2244,7 +2256,7 @@
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="8"/>
@@ -2252,7 +2264,7 @@
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="8"/>
@@ -2260,7 +2272,7 @@
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="8"/>
@@ -2268,7 +2280,7 @@
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="8"/>
@@ -2276,7 +2288,7 @@
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="8"/>
@@ -2284,7 +2296,7 @@
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="8"/>
@@ -2292,7 +2304,7 @@
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="8"/>
@@ -2300,7 +2312,7 @@
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="8"/>
@@ -2308,7 +2320,7 @@
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="8"/>
@@ -2316,7 +2328,7 @@
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="8"/>
@@ -2324,7 +2336,7 @@
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="8"/>
@@ -2332,7 +2344,7 @@
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="8"/>
@@ -2340,7 +2352,7 @@
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="8"/>
@@ -2348,7 +2360,7 @@
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="8"/>
@@ -2356,7 +2368,7 @@
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="8"/>
@@ -2364,7 +2376,7 @@
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="8"/>
@@ -2372,7 +2384,7 @@
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="8"/>
@@ -2380,7 +2392,7 @@
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="8"/>
@@ -2388,7 +2400,7 @@
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="8"/>
@@ -2396,7 +2408,7 @@
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="8"/>
@@ -2404,7 +2416,7 @@
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="8"/>
@@ -2412,7 +2424,7 @@
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="8"/>
@@ -2420,7 +2432,7 @@
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="8"/>
@@ -2428,7 +2440,7 @@
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="8"/>
@@ -2436,7 +2448,7 @@
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="8"/>
@@ -2444,7 +2456,7 @@
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="8"/>
@@ -2452,7 +2464,7 @@
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="8"/>
@@ -2460,7 +2472,7 @@
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="8"/>
@@ -2468,7 +2480,7 @@
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="8"/>
@@ -2476,7 +2488,7 @@
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="8"/>
@@ -2484,7 +2496,7 @@
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="8"/>
@@ -2492,7 +2504,7 @@
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="8"/>
@@ -2500,7 +2512,7 @@
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="8"/>
@@ -2508,7 +2520,7 @@
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="8"/>
@@ -2516,7 +2528,7 @@
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="8"/>
@@ -2524,7 +2536,7 @@
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="8"/>
@@ -2532,7 +2544,7 @@
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="8"/>
@@ -2540,7 +2552,7 @@
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="8"/>
@@ -2548,7 +2560,7 @@
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="8"/>
@@ -2556,7 +2568,7 @@
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="8"/>
@@ -2564,7 +2576,7 @@
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="8"/>
@@ -2572,7 +2584,7 @@
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="8"/>
@@ -2580,7 +2592,7 @@
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="8"/>
@@ -2588,7 +2600,7 @@
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="8"/>
@@ -2596,7 +2608,7 @@
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="8"/>
@@ -2604,7 +2616,7 @@
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="8"/>
@@ -2612,7 +2624,7 @@
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="8"/>
@@ -2620,7 +2632,7 @@
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="8"/>
@@ -2628,7 +2640,7 @@
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="8"/>
@@ -2636,7 +2648,7 @@
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="8"/>
@@ -2644,7 +2656,7 @@
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="8"/>
@@ -2652,7 +2664,7 @@
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="8"/>
@@ -2660,7 +2672,7 @@
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="8"/>
@@ -2668,7 +2680,7 @@
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="8"/>
@@ -2676,7 +2688,7 @@
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="8"/>
@@ -2684,7 +2696,7 @@
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="8"/>
@@ -2692,7 +2704,7 @@
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="8"/>
@@ -2700,7 +2712,7 @@
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="8"/>
@@ -2708,7 +2720,7 @@
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="8"/>
@@ -2716,7 +2728,7 @@
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="8"/>
@@ -2724,7 +2736,7 @@
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="8"/>
@@ -2732,7 +2744,7 @@
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="8"/>
@@ -2740,7 +2752,7 @@
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="8"/>
@@ -2748,7 +2760,7 @@
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="8"/>
@@ -2756,7 +2768,7 @@
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="8"/>
@@ -2764,7 +2776,7 @@
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="8"/>
@@ -2772,7 +2784,7 @@
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="8"/>
@@ -2780,7 +2792,7 @@
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="8"/>
@@ -2788,7 +2800,7 @@
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="8"/>
@@ -2796,7 +2808,7 @@
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="8"/>
@@ -2804,7 +2816,7 @@
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="8"/>
@@ -2812,7 +2824,7 @@
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="8"/>
@@ -2820,7 +2832,7 @@
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="8"/>
@@ -2828,7 +2840,7 @@
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="8"/>
@@ -2836,7 +2848,7 @@
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="8"/>
@@ -2844,7 +2856,7 @@
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="8"/>
@@ -2852,7 +2864,7 @@
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="8"/>
@@ -2860,7 +2872,7 @@
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="8"/>
@@ -2868,7 +2880,7 @@
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="8"/>
@@ -2876,7 +2888,7 @@
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="8"/>
@@ -2884,7 +2896,7 @@
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="8"/>
@@ -2892,7 +2904,7 @@
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="8"/>
@@ -2900,7 +2912,7 @@
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="8"/>
@@ -2908,7 +2920,7 @@
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="8"/>
@@ -2916,7 +2928,7 @@
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="8"/>
@@ -2924,7 +2936,7 @@
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="8"/>
@@ -2932,7 +2944,7 @@
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="8"/>
@@ -2940,7 +2952,7 @@
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="8"/>
@@ -2948,7 +2960,7 @@
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="8"/>
@@ -2956,7 +2968,7 @@
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="8"/>
@@ -2964,7 +2976,7 @@
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="8"/>
@@ -2972,7 +2984,7 @@
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="8"/>
@@ -2980,7 +2992,7 @@
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="8"/>
@@ -2988,7 +3000,7 @@
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="8"/>
@@ -2996,7 +3008,7 @@
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="8"/>
@@ -3004,7 +3016,7 @@
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="8"/>
@@ -3012,7 +3024,7 @@
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="8"/>
@@ -3020,7 +3032,7 @@
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="8"/>
@@ -3028,7 +3040,7 @@
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="8"/>
@@ -3036,7 +3048,7 @@
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="8"/>
@@ -3044,7 +3056,7 @@
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="8"/>
@@ -3052,7 +3064,7 @@
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="8"/>
@@ -3060,7 +3072,7 @@
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="8"/>
@@ -3068,7 +3080,7 @@
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="8"/>
@@ -3076,7 +3088,7 @@
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="8"/>
@@ -3084,7 +3096,7 @@
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="8"/>
@@ -3092,7 +3104,7 @@
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="8"/>
@@ -3100,7 +3112,7 @@
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="8"/>
@@ -3108,7 +3120,7 @@
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="8"/>
@@ -3116,7 +3128,7 @@
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="8"/>
@@ -3124,7 +3136,7 @@
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="8"/>
@@ -3132,7 +3144,7 @@
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="8"/>
@@ -3140,7 +3152,7 @@
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="8"/>
@@ -3148,7 +3160,7 @@
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="8"/>
@@ -3156,7 +3168,7 @@
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="8"/>
@@ -3164,7 +3176,7 @@
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="8"/>
@@ -3172,7 +3184,7 @@
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="8"/>
@@ -3180,7 +3192,7 @@
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="8"/>
@@ -3188,7 +3200,7 @@
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="8"/>
@@ -3196,7 +3208,7 @@
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="8"/>
@@ -3204,7 +3216,7 @@
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="8"/>
@@ -3212,7 +3224,7 @@
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="8"/>
@@ -3220,7 +3232,7 @@
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="8"/>
@@ -3228,7 +3240,7 @@
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="8"/>
@@ -3236,7 +3248,7 @@
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="8"/>
@@ -3244,7 +3256,7 @@
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="8"/>
@@ -3252,7 +3264,7 @@
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="8"/>
@@ -3260,7 +3272,7 @@
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="8"/>
@@ -3268,7 +3280,7 @@
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="8"/>
@@ -3292,23 +3304,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -3535,32 +3530,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
-    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3577,4 +3564,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
+    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>